--- a/latex/excel2latex/form.xlsx
+++ b/latex/excel2latex/form.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Recall</t>
   </si>
@@ -63,7 +63,12 @@
     <t>Night Videos</t>
   </si>
   <si>
-    <t>category</t>
+    <t>Overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -94,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,12 +107,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,223 +423,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="2">
         <v>0.90380000000000005</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="2">
         <v>0.99719999999999998</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="2">
         <v>2.8E-3</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="2">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="2">
         <v>0.42949999999999999</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="2">
         <v>0.84540000000000004</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="2">
         <v>0.85070000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="3">
         <v>0.96140000000000003</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="3">
         <v>0.99950000000000006</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="3">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="3">
         <v>0.17899999999999999</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="3">
         <v>0.97589999999999999</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="3">
         <v>0.96840000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="3">
         <v>0.94279999999999997</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="3">
         <v>0.999</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="E4">
+      <c r="E5" s="3">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="3">
         <v>0.26779999999999998</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="3">
         <v>0.93540000000000001</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="3">
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="3">
         <v>0.90449999999999997</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="3">
         <v>0.99670000000000003</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="3">
         <v>3.3E-3</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="3">
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="3">
         <v>0.8246</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="3">
         <v>0.91539999999999999</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="3">
         <v>0.90390000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="3">
         <v>0.88380000000000003</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="3">
         <v>0.99890000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="3">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="3">
         <v>0.1162</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="3">
         <v>0.75139999999999996</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="3">
         <v>0.96440000000000003</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="3">
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="3">
         <v>0.90269999999999995</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="3">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="3">
         <v>1E-4</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="3">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="3">
         <v>0.31040000000000001</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="3">
         <v>0.99729999999999996</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="3">
         <v>0.94610000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="4">
         <v>0.94369999999999998</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="4">
         <v>0.99480000000000002</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="4">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="4">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="4">
         <v>0.62180000000000002</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="4">
         <v>0.79369999999999996</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="4">
         <v>0.85640000000000005</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
